--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regurgitation typically suggests a functional issue rather than a structural one like esophageal stricture, which would not usually relieve pain.</t>
+          <t>Regurgitation relief suggests that the pain may be related to reflux rather than a structural issue like esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Hoarse voice reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If antacids are ineffective, it may indicate a non-acid related issue rather than a structural problem like esophageal stricture.</t>
+          <t>A hoarse voice can indicate laryngeal involvement or irritation, which is less common in isolated esophageal stricture cases.</t>
         </is>
       </c>
     </row>
@@ -515,34 +515,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Cough reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate esophageal or laryngeal involvement, which is less likely in isolated esophageal stricture.</t>
+          <t>The absence of cough may suggest that there is no significant irritation or obstruction affecting the airway, which can be associated with esophageal issues.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Antacids no longer providing relief is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic reflux is a significant risk factor for developing esophageal stricture due to ongoing damage to the esophageal lining.</t>
+          <t>The ineffectiveness of antacids may indicate a structural issue like esophageal stricture, as it suggests that the underlying problem is not acid-related.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Nausea and/or vomiting is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A cough may suggest aspiration or other respiratory issues, which are less common in isolated esophageal stricture.</t>
+          <t>The absence of nausea and vomiting may indicate that there is no significant obstruction or irritation in the gastrointestinal tract, which would be expected with esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -559,12 +559,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Intermittent temporal pattern (not constant) of symptoms is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of nausea and vomiting may indicate that the gastrointestinal tract is functioning normally, which is less consistent with esophageal stricture.</t>
+          <t>A constant pattern of symptoms is more indicative of a structural issue like esophageal stricture, while intermittent symptoms may suggest other causes.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with other comorbidities that can contribute to esophageal issues; its absence may indicate a lower risk for esophageal stricture.</t>
+          <t>Hypertension is often associated with cardiovascular issues that can indirectly affect esophageal health; its absence may indicate a lower risk for esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can lead to gastrointestinal side effects, including esophageal motility issues, which may contribute to the development of esophageal stricture.</t>
+          <t>Amlodipine is a calcium channel blocker that can lead to gastrointestinal side effects, including esophageal motility issues, which may contribute to the development of strictures.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for many gastrointestinal conditions, including esophageal stricture; its absence suggests a lower likelihood of this diagnosis.</t>
+          <t>Obesity is a significant risk factor for many gastrointestinal conditions, including esophageal stricture; its absence suggests a lower likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use disorder is a risk factor for esophageal stricture, its absence does not directly support the diagnosis but may indicate a lower risk profile.</t>
+          <t>While alcohol use disorder is a risk factor for esophageal issues, its absence may suggest a lower likelihood of other esophageal complications, potentially isolating the stricture as a primary concern.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type 2 diabetes can lead to complications affecting the esophagus; its absence may indicate a lower risk for esophageal stricture.</t>
+          <t>Type 2 diabetes can lead to various complications, including gastrointestinal issues; its absence may indicate a lower risk for esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use disorder, the absence of nicotine dependence may suggest a lower risk for esophageal stricture, but does not directly support the diagnosis.</t>
+          <t>Nicotine dependence is a known risk factor for esophageal conditions; its absence may suggest a lower risk for esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Environmental allergies are not directly related to esophageal stricture, and their absence does not support the diagnosis.</t>
+          <t>Environmental allergies are not directly related to esophageal stricture, and their absence may suggest a lower likelihood of other contributing factors.</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of rheumatoid arthritis in the family suggests a lower likelihood of autoimmune conditions that could lead to esophageal stricture.</t>
+          <t>The absence of rheumatoid arthritis in the family suggests a lower likelihood of autoimmune conditions that could lead to esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a significant risk factor for esophageal stricture; its absence reduces the likelihood of this diagnosis.</t>
+          <t>The absence of current tobacco use reduces the risk of esophageal stricture, as ongoing exposure to tobacco is a significant risk factor.</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower risk of infections or conditions that could lead to esophageal stricture, such as travel-related illnesses.</t>
+          <t>Absence of recent travel may indicate a lower risk of infections or exposures that could lead to esophageal issues.</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of family history of cancer may suggest a lower genetic predisposition to malignancies that could lead to esophageal stricture, but it does not rule out other causes.</t>
+          <t>The absence of a family history of cancer may suggest a lower genetic predisposition to malignancies that could lead to esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal stricture.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use is a neutral finding; while alcohol can contribute to esophageal issues, its absence does not support or refute the diagnosis.</t>
+          <t>The absence of alcohol use is favorable as alcohol is a risk factor for esophageal conditions, including strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gestational complications suggests a lower likelihood of related esophageal issues, as such complications can sometimes lead to structural changes.</t>
+          <t>The absence of gestational complications suggests a lower likelihood of conditions that could affect esophageal health.</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with esophageal stricture due to difficulty swallowing and reduced food intake.</t>
+          <t>Weight loss can be a significant indicator of esophageal stricture due to difficulty swallowing and reduced intake of food.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a hoarse voice suggests that there is likely no compression or irritation of the laryngeal nerves, which can occur with esophageal stricture.</t>
+          <t>The absence of a hoarse voice suggests that there is likely no involvement of the larynx or upper airway, which can be associated with esophageal issues.</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of cough indicates that there is likely no aspiration or significant esophageal obstruction, which would be expected in esophageal stricture.</t>
+          <t>The absence of cough indicates that there is likely no aspiration or respiratory complication, which can be associated with esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that there is no significant respiratory involvement, which can be seen in esophageal conditions.</t>
+          <t>The absence of cough may suggest that there is no significant respiratory involvement, which can sometimes accompany esophageal issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain suggests that there is no acute gastrointestinal issue, which would be more common in esophageal stricture.</t>
+          <t>The absence of epigastric pain suggests that there is likely no acute gastrointestinal issue, which can be associated with esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of hoarseness may indicate that there is no laryngeal involvement, which can sometimes accompany esophageal issues.</t>
+          <t>The absence of a hoarse voice may indicate that there is no laryngeal involvement, which can sometimes be confused with esophageal issues.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of weakness may indicate that there is no significant systemic illness or malnutrition, which can accompany esophageal stricture.</t>
+          <t>The absence of weakness may indicate that there is no significant systemic illness affecting the patient, which could be associated with esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may suggest that there is no acute inflammatory process, which can be seen in esophageal stricture.</t>
+          <t>The absence of epigastric pain may suggest that there is no acute inflammatory process, which can sometimes accompany esophageal strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of obesity may suggest that the patient is not experiencing the weight loss typically associated with esophageal stricture.</t>
+          <t>The absence of obesity may suggest that the patient is not experiencing the typical weight-related complications that can accompany esophageal strictures.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, or difficulty swallowing, is a common symptom of esophageal stricture, indicating a physical obstruction in the esophagus.</t>
+          <t>Difficulty swallowing solids is a classic symptom of esophageal stricture, as the narrowing of the esophagus typically affects the passage of solid foods first.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regurgitation relief suggests that the pain may be related to reflux rather than a structural issue like esophageal stricture.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders, which can also cause esophageal symptoms but are not directly indicative of esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids suggests a narrowing of the esophagus, which is characteristic of esophageal stricture.</t>
+          <t>While less common, difficulty swallowing liquids can occur in more advanced esophageal strictures, indicating significant narrowing.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement or irritation, which is less common in isolated esophageal stricture cases.</t>
+          <t>Telangiectasias are associated with systemic sclerosis, which can cause esophageal dysmotility rather than strictures.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux can be associated with esophageal stricture, as chronic reflux may lead to inflammation and scarring, resulting in narrowing.</t>
+          <t>Non-progressive dysphagia with difficulty swallowing both solids and liquids suggests a structural issue like esophageal stricture rather than a motility disorder.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there is no significant irritation or obstruction affecting the airway, which can be associated with esophageal issues.</t>
+          <t>This finding suggests a systemic condition affecting the joints, which is not typically related to esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The ineffectiveness of antacids may indicate a structural issue like esophageal stricture, as it suggests that the underlying problem is not acid-related.</t>
+          <t>Chronic heartburn can lead to esophageal damage and stricture formation over time due to repeated acid exposure.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of nausea and vomiting may indicate that there is no significant obstruction or irritation in the gastrointestinal tract, which would be expected with esophageal stricture.</t>
+          <t>Pain relief with regurgitation is more indicative of esophageal motility disorders rather than strictures, where regurgitation might not relieve pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Long-standing reflux (duration of years) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss can occur due to difficulty eating and swallowing, which is often seen in patients with esophageal stricture.</t>
+          <t>Chronic reflux is a risk factor for esophageal stricture as it can cause inflammation and scarring of the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Intermittent temporal pattern (not constant) of symptoms is absent.</t>
+          <t>Pain previously better with antacids is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A constant pattern of symptoms is more indicative of a structural issue like esophageal stricture, while intermittent symptoms may suggest other causes.</t>
+          <t>The absence of pain relief with antacids suggests that the pain may not be primarily due to acid reflux, which is a common precursor to esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esophageal stricture is more common in females, particularly in middle age, which may increase the likelihood of this diagnosis.</t>
+          <t>Esophageal strictures can occur in females, although gender is not a strong predictor.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation therapy is a known risk factor for esophageal stricture; its absence suggests a lower likelihood of developing this condition.</t>
+          <t>Radiation treatment is a known risk factor for esophageal stricture, and its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The incidence of esophageal stricture increases with age, making middle-aged individuals more susceptible to this condition.</t>
+          <t>Middle age can be a risk factor for esophageal stricture due to cumulative exposure to risk factors like GERD, although it is not highly specific.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Alcohol use disorder is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with cardiovascular issues that can indirectly affect esophageal health; its absence may indicate a lower risk for esophageal stricture.</t>
+          <t>Alcohol use can contribute to esophageal damage and stricture formation, so its absence is a negative predictor.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can lead to gastrointestinal side effects, including esophageal motility issues, which may contribute to the development of strictures.</t>
+          <t>Amlodipine use is not directly linked to esophageal stricture but may be associated with conditions that predispose to it.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Nicotine dependence is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is a significant risk factor for many gastrointestinal conditions, including esophageal stricture; its absence suggests a lower likelihood of this diagnosis.</t>
+          <t>Nicotine use is associated with increased risk of esophageal conditions, including strictures, so its absence is a negative predictor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use disorder is a risk factor for esophageal issues, its absence may suggest a lower likelihood of other esophageal complications, potentially isolating the stricture as a primary concern.</t>
+          <t>Stable medication use suggests no recent exacerbation of conditions that could lead to esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>Obesity is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type 2 diabetes can lead to various complications, including gastrointestinal issues; its absence may indicate a lower risk for esophageal stricture.</t>
+          <t>Obesity is a risk factor for GERD, which can lead to esophageal stricture, so its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of environmental allergies.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a known risk factor for esophageal conditions; its absence may suggest a lower risk for esophageal stricture.</t>
+          <t>While not directly related, the absence of allergies may suggest fewer inflammatory conditions that could contribute to esophageal issues.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Type 2 diabetes is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Environmental allergies are not directly related to esophageal stricture, and their absence may suggest a lower likelihood of other contributing factors.</t>
+          <t>Diabetes can be associated with esophageal motility disorders, which can contribute to stricture formation, so its absence is a negative predictor.</t>
         </is>
       </c>
     </row>
@@ -763,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prior tobacco use</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tobacco use is a known risk factor for esophageal stricture due to its association with chronic inflammation and potential carcinogenic effects on the esophagus.</t>
+          <t>Tobacco use, even if prior, can lead to conditions that predispose to esophageal stricture, such as GERD or esophageal cancer.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of rheumatoid arthritis in the family suggests a lower likelihood of autoimmune conditions that could lead to esophageal stricture.</t>
+          <t>Alcohol use is a known risk factor for esophageal conditions, including strictures. Its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent social stress</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can contribute to gastrointestinal issues, including esophageal stricture, as it may lead to behaviors that exacerbate esophageal conditions.</t>
+          <t>Stress can exacerbate conditions like GERD, which is a risk factor for esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use reduces the risk of esophageal stricture, as ongoing exposure to tobacco is a significant risk factor.</t>
+          <t>Current tobacco use is a risk factor for esophageal stricture, and its absence decreases the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father</t>
+          <t>Family history of myocardial infarction in father is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to conditions that could indirectly affect esophageal health.</t>
+          <t>While not directly related, cardiovascular issues can be associated with lifestyle factors that also increase the risk of esophageal conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower risk of infections or exposures that could lead to esophageal issues.</t>
+          <t>While not directly related, autoimmune conditions can sometimes be associated with esophageal issues. Its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a lower genetic predisposition to malignancies that could lead to esophageal stricture.</t>
+          <t>The absence of a family history of cancer does not strongly support esophageal stricture but does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal stricture.</t>
+          <t>Recent travel could expose the patient to different dietary or environmental factors that might exacerbate esophageal conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use is favorable as alcohol is a risk factor for esophageal conditions, including strictures.</t>
+          <t>The absence of recent medical procedures does not directly support esophageal stricture but eliminates iatrogenic causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications suggests a lower likelihood of conditions that could affect esophageal health.</t>
+          <t>Gestational complications are not directly related to esophageal stricture, but their absence does not support the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -919,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can be a significant indicator of esophageal stricture due to difficulty swallowing and reduced intake of food.</t>
+          <t>Weight loss can occur due to difficulty swallowing and reduced intake, which is common in esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -929,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests that there is likely no involvement of the larynx or upper airway, which can be associated with esophageal issues.</t>
+          <t>Hoarseness can be associated with esophageal conditions affecting the larynx or recurrent laryngeal nerve, so its absence argues against esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -941,7 +942,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with systemic conditions that may lead to esophageal stricture, such as scleroderma.</t>
+          <t>Telangiectasias can be associated with systemic sclerosis, which can lead to esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -951,19 +952,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of cough indicates that there is likely no aspiration or respiratory complication, which can be associated with esophageal strictures.</t>
+          <t>Cough can be a symptom of esophageal stricture due to aspiration or reflux, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there is no significant respiratory involvement, which can sometimes accompany esophageal issues.</t>
+          <t>Absence of obesity may correlate with weight loss due to esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -973,51 +974,202 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain suggests that there is likely no acute gastrointestinal issue, which can be associated with esophageal strictures.</t>
+          <t>Epigastric pain can be associated with esophageal conditions, so its absence argues against esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may indicate that there is no laryngeal involvement, which can sometimes be confused with esophageal issues.</t>
+          <t>While not directly related, absence of high blood pressure may be seen in patients with systemic conditions affecting the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness may indicate that there is no significant systemic illness affecting the patient, which could be associated with esophageal strictures.</t>
+          <t>Hand thickening can be associated with systemic sclerosis, which can lead to esophageal stricture, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of neck masses or fullness observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may suggest that there is no acute inflammatory process, which can sometimes accompany esophageal strictures.</t>
+          <t>Absence of neck masses suggests that the swallowing difficulty is more likely due to esophageal stricture rather than external compression.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of obesity may suggest that the patient is not experiencing the typical weight-related complications that can accompany esophageal strictures.</t>
+          <t>Finger ulcers can be associated with systemic sclerosis, which can lead to esophageal stricture, so their absence argues against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Esophageal stricture</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Esophageal stricture</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Esophageal stricture</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Esophageal stricture</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aspiration is often associated with esophageal stricture due to impaired swallowing, so its absence does not support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aspiration is a common finding in esophageal stricture due to swallowing difficulties, so its absence argues against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Interstitial lung disease (ILD) can be associated with esophageal disorders, but its absence does not directly support esophageal stricture.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of ILD, which can be associated with esophageal disorders, slightly argues against esophageal stricture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum can indicate other conditions but its absence does not directly support esophageal stricture.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum can indicate esophageal issues, so its absence slightly argues against esophageal stricture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to esophageal stricture, so its presence does not support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is unrelated to esophageal stricture, so its presence does not argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A strong positive ANA is not directly related to esophageal stricture, so its absence does not support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA, which is unrelated to esophageal stricture, does not argue against the diagnosis.</t>
         </is>
       </c>
     </row>
